--- a/out/weapon.xlsx
+++ b/out/weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\GOG Galaxy\Games\unpackage\Gustav\Public\Gustav\Stats\Generated\Data\scripts\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47EEF5D-CB4A-47F0-A852-59306D0DAD10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AA2302-AE4D-4053-9AE0-EB6395B0E911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="436">
   <si>
     <t>name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Rare</t>
   </si>
   <si>
-    <t>UnlockSpell(Target_DEN_EnsnaringStrike_HalsinBlade)</t>
+    <t>UnlockSpell(Target_DEN_EnsnaringStrike_HalsinBlade);UnlockSpell(Zone_Cleave)</t>
   </si>
   <si>
     <t>DEN_TunnelStaff</t>
@@ -82,6 +82,15 @@
     <t>UnlockSpell(Target_Topple)</t>
   </si>
   <si>
+    <t>DEN_FaithwardenStaff</t>
+  </si>
+  <si>
+    <t>13f6ff0c-08c4-4e9f-a624-511389b68dc2</t>
+  </si>
+  <si>
+    <t>UnlockSpell(Target_DEN_Entangle_Staff);UnlockSpell(Target_Topple)</t>
+  </si>
+  <si>
     <t>FOR_TrueSoul_Spear</t>
   </si>
   <si>
@@ -592,6 +601,12 @@
     <t>1a2a58b7-4bd5-44d5-b1fe-8cd7e5b53def</t>
   </si>
   <si>
+    <t>WPN_Greatsword_Gith</t>
+  </si>
+  <si>
+    <t>d1082e88-b1e2-479d-913f-1413784d95a1</t>
+  </si>
+  <si>
     <t>WPN_Halberd_1</t>
   </si>
   <si>
@@ -616,6 +631,12 @@
     <t>6af59cba-cc38-4511-9c3b-75caac4b96b5</t>
   </si>
   <si>
+    <t>WPN_HeavyCrossbow_Gith</t>
+  </si>
+  <si>
+    <t>b674ea52-2b6f-4977-b6d5-98810304a98b</t>
+  </si>
+  <si>
     <t>WPN_Javelin_1</t>
   </si>
   <si>
@@ -646,6 +667,12 @@
     <t>3fc2ba50-3070-4caa-abe8-3bf885969bde</t>
   </si>
   <si>
+    <t>WPN_Longsword_Gith</t>
+  </si>
+  <si>
+    <t>907a794b-b089-406b-880d-6f2df2bb3f13</t>
+  </si>
+  <si>
     <t>WPN_Mace_1</t>
   </si>
   <si>
@@ -700,6 +727,12 @@
     <t>261b946f-154b-4f75-8985-cab6531034a2</t>
   </si>
   <si>
+    <t>WPN_Shortsword_Gith</t>
+  </si>
+  <si>
+    <t>4b54911a-a32d-48ad-8691-ff28801e1275</t>
+  </si>
+  <si>
     <t>WPN_Spear_1</t>
   </si>
   <si>
@@ -910,6 +943,12 @@
     <t>UnlockSpell(Target_Topple);UnlockSpell(Target_CreateWater_StaffOfRain)</t>
   </si>
   <si>
+    <t>WPN_Quarterstaff_Druid</t>
+  </si>
+  <si>
+    <t>b5c85eb7-ed4f-4e90-a317-5547ddaf3650</t>
+  </si>
+  <si>
     <t>WPN_MeatCleaver</t>
   </si>
   <si>
@@ -928,12 +967,39 @@
     <t>50c43f27-a12e-412c-88f0-56e15eba692a</t>
   </si>
   <si>
+    <t>WPN_Torch_StartLit</t>
+  </si>
+  <si>
+    <t>8d175e5e-355e-4b27-9890-d35e36204487</t>
+  </si>
+  <si>
     <t>WPN_ToySword</t>
   </si>
   <si>
     <t>5e651778-cc78-425e-b27d-483b1c8afa82</t>
   </si>
   <si>
+    <t>WPN_Scimitar_FlameBlade</t>
+  </si>
+  <si>
+    <t>dfb5a6ef-baee-4c0e-9b9d-7f5bd9458131</t>
+  </si>
+  <si>
+    <t>3d6</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>WPN_Scimitar_FlameBlade_4</t>
+  </si>
+  <si>
+    <t>7bbfed72-1302-4709-8da5-2220343d7d29</t>
+  </si>
+  <si>
+    <t>4d6</t>
+  </si>
+  <si>
     <t>WPN_Automaton_Halberd</t>
   </si>
   <si>
@@ -1022,6 +1088,12 @@
   </si>
   <si>
     <t>1fdc0473-8d0f-4e59-8ef8-9bd67568c002</t>
+  </si>
+  <si>
+    <t>WPN_WoodWoad_Club</t>
+  </si>
+  <si>
+    <t>c71e2798-31ae-4f57-8073-c6195c2e9d02</t>
   </si>
   <si>
     <t>WPN_Battleaxe_Pact</t>
@@ -1605,7 +1677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,11 +1933,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1920,7 +1992,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1929,7 +2001,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1938,7 +2010,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1947,7 +2019,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1956,7 +2028,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1965,7 +2037,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1974,7 +2046,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1983,7 +2055,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1992,6 +2064,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2007,8 +2080,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G187" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
-  <autoFilter ref="A1:G187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G197" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="A1:G197"/>
   <tableColumns count="7">
     <tableColumn id="1" name="name" dataDxfId="7"/>
     <tableColumn id="2" name="RootTemplate" dataDxfId="6"/>
@@ -2018,7 +2091,7 @@
     <tableColumn id="6" name="ValueOverride" dataDxfId="2"/>
     <tableColumn id="7" name="Boosts" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2319,25 +2392,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.3" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="35.6" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.92578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.2109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.78515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2360,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2449,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2411,7 +2483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2443,13 +2515,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2457,35 +2529,35 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>60</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>150</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2498,13 +2570,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -2517,49 +2589,49 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>180</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>330</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2572,13 +2644,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -2586,18 +2658,18 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2610,13 +2682,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2629,98 +2701,98 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="3">
+        <v>280</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>260</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>430</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <v>330</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
@@ -2730,16 +2802,16 @@
       <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <v>700</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -2747,18 +2819,18 @@
         <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
@@ -2771,16 +2843,18 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
-        <v>520</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -2788,16 +2862,16 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -2805,13 +2879,11 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3">
-        <v>720</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -2819,38 +2891,40 @@
         <v>75</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3">
-        <v>150</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
@@ -2858,13 +2932,11 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
-        <v>700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
@@ -2876,15 +2948,19 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="3">
+        <v>700</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -2892,11 +2968,9 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
@@ -2908,14 +2982,12 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>400</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
@@ -2928,16 +3000,18 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
-        <v>330</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -2945,16 +3019,16 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -2962,16 +3036,16 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
@@ -2979,74 +3053,70 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
+        <v>250</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
         <v>300</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="3">
-        <v>70</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3">
+        <v>70</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="3">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F39" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
@@ -3055,19 +3125,19 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>111</v>
       </c>
@@ -3076,40 +3146,40 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F41" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F42" s="3">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>116</v>
       </c>
@@ -3121,16 +3191,16 @@
         <v>118</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F43" s="3">
         <v>110</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>119</v>
       </c>
@@ -3139,40 +3209,40 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F45" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>124</v>
       </c>
@@ -3181,355 +3251,355 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F46" s="3">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="3">
         <v>60</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>20</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F48" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F49" s="3">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F50" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F51" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F52" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F53" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F54" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="3">
+        <v>75</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F56" s="3">
+        <v>30</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F57" s="3">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F58" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F60" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F61" s="3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F62" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>159</v>
       </c>
@@ -3538,10 +3608,10 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F63" s="3">
         <v>20</v>
@@ -3550,7 +3620,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>162</v>
       </c>
@@ -3559,49 +3629,49 @@
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F64" s="3">
         <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F65" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>107</v>
@@ -3610,95 +3680,99 @@
         <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F68" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F69" s="3">
+        <v>50</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F70" s="3">
-        <v>600</v>
-      </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>9</v>
@@ -3706,16 +3780,16 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>9</v>
@@ -3727,12 +3801,12 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>9</v>
@@ -3740,16 +3814,16 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>9</v>
@@ -3757,16 +3831,16 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>9</v>
@@ -3774,16 +3848,16 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>9</v>
@@ -3791,16 +3865,16 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>9</v>
@@ -3808,16 +3882,16 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>9</v>
@@ -3829,29 +3903,31 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -3859,16 +3935,16 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>9</v>
@@ -3876,16 +3952,16 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>9</v>
@@ -3893,16 +3969,16 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>9</v>
@@ -3910,16 +3986,16 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>9</v>
@@ -3927,16 +4003,16 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>9</v>
@@ -3944,16 +4020,16 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>9</v>
@@ -3961,16 +4037,16 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -3978,16 +4054,16 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>9</v>
@@ -3995,16 +4071,16 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -4016,12 +4092,12 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
@@ -4029,16 +4105,16 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>9</v>
@@ -4046,16 +4122,16 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>9</v>
@@ -4063,16 +4139,16 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>9</v>
@@ -4080,16 +4156,16 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>9</v>
@@ -4097,16 +4173,16 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>9</v>
@@ -4114,16 +4190,16 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>9</v>
@@ -4131,16 +4207,16 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>9</v>
@@ -4148,16 +4224,16 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>9</v>
@@ -4165,16 +4241,16 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>9</v>
@@ -4182,28 +4258,28 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>237</v>
       </c>
@@ -4211,16 +4287,16 @@
         <v>238</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>239</v>
       </c>
@@ -4228,16 +4304,16 @@
         <v>240</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>241</v>
       </c>
@@ -4245,16 +4321,16 @@
         <v>242</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>243</v>
       </c>
@@ -4262,16 +4338,16 @@
         <v>244</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>245</v>
       </c>
@@ -4279,41 +4355,41 @@
         <v>246</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4322,15 +4398,15 @@
       </c>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4339,15 +4415,15 @@
       </c>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4356,15 +4432,15 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4373,15 +4449,15 @@
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4390,15 +4466,15 @@
       </c>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4407,15 +4483,15 @@
       </c>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4424,15 +4500,15 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4441,15 +4517,15 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4458,15 +4534,15 @@
       </c>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4475,15 +4551,15 @@
       </c>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4492,15 +4568,15 @@
       </c>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4509,15 +4585,15 @@
       </c>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4526,15 +4602,15 @@
       </c>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4543,15 +4619,15 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4560,15 +4636,15 @@
       </c>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4577,15 +4653,15 @@
       </c>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4594,15 +4670,15 @@
       </c>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4611,15 +4687,15 @@
       </c>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4628,15 +4704,15 @@
       </c>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4645,15 +4721,15 @@
       </c>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4662,15 +4738,15 @@
       </c>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4679,117 +4755,129 @@
       </c>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3">
-        <v>100</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="3">
+        <v>1500</v>
+      </c>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3">
+        <v>1500</v>
+      </c>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3">
+        <v>1500</v>
+      </c>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="C133" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
       <c r="F133" s="3">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C134" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F134" s="3">
+        <v>100</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C135" s="3"/>
-      <c r="D135" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4797,12 +4885,12 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4810,12 +4898,12 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4823,12 +4911,12 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4836,51 +4924,65 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4888,214 +4990,204 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C145" s="3"/>
-      <c r="D145" s="3" t="s">
-        <v>328</v>
-      </c>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C146" s="3"/>
-      <c r="D146" s="3" t="s">
-        <v>328</v>
-      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C147" s="3"/>
-      <c r="D147" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C148" s="3"/>
-      <c r="D148" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3">
-        <v>0</v>
-      </c>
+      <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
+      <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3">
-        <v>0</v>
-      </c>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="3">
-        <v>0</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3">
-        <v>0</v>
-      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="E154" s="3"/>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
+      <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5103,90 +5195,102 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5194,12 +5298,12 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5207,12 +5311,12 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5220,12 +5324,12 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5233,12 +5337,12 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5246,12 +5350,12 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -5259,12 +5363,12 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5272,12 +5376,12 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -5285,12 +5389,12 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5298,12 +5402,12 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -5311,12 +5415,12 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5324,12 +5428,12 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -5337,12 +5441,12 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5350,12 +5454,12 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -5363,12 +5467,12 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5376,12 +5480,12 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -5389,12 +5493,12 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -5402,12 +5506,12 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -5415,12 +5519,12 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -5428,12 +5532,12 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -5441,12 +5545,12 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -5454,12 +5558,12 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -5467,18 +5571,148 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" ht="35.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
